--- a/Test circuits/Pasa banda/Pasa_banda.xlsx
+++ b/Test circuits/Pasa banda/Pasa_banda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adare\OneDrive\Documentos\Maestria Cinvestav\Microondas\proyecto\Circuitos de prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adare\OneDrive\Documentos\Maestria Cinvestav\Microondas\proyecto\Circuitos de prueba\Pasa banda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0E1817-E643-4C66-8F85-69FC8F3A7921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42AC173-421C-42F0-8CE2-89F341C76633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="893" yWindow="1785" windowWidth="16200" windowHeight="9428" xr2:uid="{BA338AC5-38D2-4863-A2FB-3CF1B9099335}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11055" xr2:uid="{BA338AC5-38D2-4863-A2FB-3CF1B9099335}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Nombre</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>L1</t>
+  </si>
+  <si>
+    <t>Bl</t>
+  </si>
+  <si>
+    <t>Operating Freq</t>
   </si>
 </sst>
 </file>
@@ -436,15 +442,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E934B5-3DBC-49E0-925E-E930EE18A06F}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,8 +466,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -477,8 +489,14 @@
       <c r="E2">
         <v>10</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -494,8 +512,14 @@
       <c r="E3" s="3">
         <v>1.5899999999999999E-10</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -510,6 +534,12 @@
       </c>
       <c r="E4" s="3">
         <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
